--- a/Project_DX/DX08/DX08/Resources/Excel/itemData.xlsx
+++ b/Project_DX/DX08/DX08/Resources/Excel/itemData.xlsx
@@ -1,43 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Jaehyung\Project_DX\DX08\DX08\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD632534-76FE-4D3C-889B-1261567D5709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{993CBA90-F3F2-4626-8FD3-0633590E4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEF4F07F-4F64-423A-851C-9029EDC4B4B6}"/>
+    <workbookView xWindow="6735" yWindow="1305" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>ItemCode</t>
   </si>
   <si>
@@ -47,12 +34,12 @@
     <t>Rarity</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
+    <t>Damage</t>
+  </si>
+  <si>
     <t>SkillDamage</t>
   </si>
   <si>
@@ -80,123 +67,99 @@
     <t>FrameY</t>
   </si>
   <si>
-    <t>Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkulHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfNHeaad</t>
+  </si>
+  <si>
+    <t>WizardNHead</t>
   </si>
   <si>
     <t>WolfRHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WolfNHeaad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardRHead</t>
   </si>
   <si>
     <t>WolfUHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardUHead</t>
   </si>
   <si>
     <t>WolfLHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardNHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardRHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardUHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WizardLHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ShadowSpiritDeath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OldCross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PoisonPendant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MagicCogWheel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UnknownSeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RingOfWind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AbandonedWeddingRing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicCarleonArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicCarleonSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicCarleonStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicCarleonBow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BrokenDagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FadedManastoneFragments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PrayerBeforeMeals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RootsOfRejuvenation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BambooSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StoneOfHate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CarleonInsignia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,22 +169,330 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,9 +500,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -240,8 +741,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,81 +1094,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A67B45-D3F2-40C1-913B-1A6BBD9F7632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -673,9 +1215,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -720,9 +1262,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -767,9 +1309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -814,9 +1356,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -861,9 +1403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -908,9 +1450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -955,9 +1497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1002,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1190,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1389,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1425,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1436,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1472,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1483,10 +2025,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1519,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1530,10 +2072,10 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1566,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1577,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1613,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1624,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1660,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1671,10 +2213,10 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1707,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1718,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1754,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1765,10 +2307,10 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1801,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1812,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1848,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1859,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1896,8 +2438,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Project_DX/DX08/DX08/Resources/Excel/itemData.xlsx
+++ b/Project_DX/DX08/DX08/Resources/Excel/itemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Jaehyung\Project_DX\DX08\DX08\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogud\Desktop\Github\Jaehyung\Jaehyung\Project_DX\DX08\DX08\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{993CBA90-F3F2-4626-8FD3-0633590E4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0F797-C7A6-4D45-8278-39895C75085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1305" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -146,13 +146,229 @@
   </si>
   <si>
     <t>CarleonInsignia</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마왕성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경비대의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>막내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스켈레톤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스켈레톤에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체구가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리틀본이라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불린다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -310,6 +526,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF373A3C"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF373A3C"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF373A3C"/>
+      <name val="Open Sans"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -736,8 +972,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,34 +1333,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1407,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1214,8 +1457,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1262,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1544,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1591,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1685,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1732,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1873,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1920,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1967,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2014,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2061,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2155,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2202,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2296,7 +2542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2343,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2390,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>41</v>
       </c>
